--- a/AsBMS/桩点信息/厦门大学桩点信息.xlsx
+++ b/AsBMS/桩点信息/厦门大学桩点信息.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>勤业楼对面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东苑餐厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校门保安室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非停车点，仅供监控用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书馆门口南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>档案馆门口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>颂恩楼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,7 +82,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>群学校门</t>
+    <t>群贤校门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -66,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>勤业楼对面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>华侨之家对面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>东苑餐厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>羽毛球馆外主干道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,19 +118,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>档案馆门口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图书馆门口南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校门保安室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非停车点，仅供监控用</t>
+    <t>芙蓉湖东</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +140,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,8 +168,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -461,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -505,7 +516,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>24.444635999999999</v>
@@ -516,7 +527,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>24.444382000000001</v>
@@ -527,7 +538,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>24.443739000000001</v>
@@ -538,7 +549,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>24.442907000000002</v>
@@ -549,7 +560,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>24.442267000000001</v>
@@ -560,7 +571,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>24.443311000000001</v>
@@ -571,7 +582,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>24.443225000000002</v>
@@ -580,12 +591,12 @@
         <v>118.099965</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>24.443840999999999</v>
@@ -596,7 +607,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>24.443792999999999</v>
@@ -607,7 +618,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>24.443262000000001</v>
@@ -618,7 +629,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>24.440707</v>
@@ -629,84 +640,98 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>24.440892000000002</v>
+        <v>24.442381999999998</v>
       </c>
       <c r="D14">
-        <v>118.107868</v>
+        <v>118.10674899999999</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>24.442084000000001</v>
+        <v>24.440892000000002</v>
       </c>
       <c r="D15">
-        <v>118.10845399999999</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
+        <v>118.107868</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>24.441146</v>
+        <v>24.442084000000001</v>
       </c>
       <c r="D16">
-        <v>118.107325</v>
+        <v>118.10845399999999</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C17">
-        <v>24.441658</v>
+        <v>24.441146</v>
       </c>
       <c r="D17">
-        <v>118.107062</v>
+        <v>118.107325</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <v>24.443570999999999</v>
+        <v>24.441658</v>
       </c>
       <c r="D18">
-        <v>118.106561</v>
+        <v>118.107062</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C19">
+        <v>24.443570999999999</v>
+      </c>
+      <c r="D19">
+        <v>118.106561</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
         <v>24.444835999999999</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>118.105065</v>
       </c>
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="D23" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
